--- a/biology/Zoologie/Hydromantes_ambrosii/Hydromantes_ambrosii.xlsx
+++ b/biology/Zoologie/Hydromantes_ambrosii/Hydromantes_ambrosii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydromantes ambrosii est une espèce d'urodèles de la famille des Plethodontidae[1]. Elle est appelée en français Spélerpès brun, Hydromante de Ligurie ou Hydromante d'Ambrosi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydromantes ambrosii est une espèce d'urodèles de la famille des Plethodontidae. Elle est appelée en français Spélerpès brun, Hydromante de Ligurie ou Hydromante d'Ambrosi.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Italie. Elle se rencontre du niveau de la mer jusqu'à 2 300 m d'altitude dans la province de La Spezia en Ligurie et dans la province de Massa-Carrara en Toscane[1]. Elle a été introduite dans les Pyrénées françaises.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Italie. Elle se rencontre du niveau de la mer jusqu'à 2 300 m d'altitude dans la province de La Spezia en Ligurie et dans la province de Massa-Carrara en Toscane. Elle a été introduite dans les Pyrénées françaises.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, ambrosii, est dédié au docteur Augusto C. Ambrosi, ami de Lanza ayant récolté de spécimen utilisé pour décrire l'espèce[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, ambrosii, est dédié au docteur Augusto C. Ambrosi, ami de Lanza ayant récolté de spécimen utilisé pour décrire l'espèce.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lanza, 1955 : Notizie sulla distribuzione in Italia del Geotritone (Hydromantes italicus Dunn) e descrizione di una nuova razza (Amphibia, Plethodontidae). Archivio Zoologico Italiano, vol. 39, p. 145-160.</t>
         </is>
